--- a/Stomach.content.all.xlsx
+++ b/Stomach.content.all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/510852ff01b61d64/Documentos/Czech Phd/R/stomach_content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="14_{35A09E31-ECEC-40D6-8DBC-C44FDA68393F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{872055BC-C99A-4EAE-9457-BAED2D15A125}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="14_{35A09E31-ECEC-40D6-8DBC-C44FDA68393F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{623F06C4-B2CD-4D73-85C7-8CC093E5DE9C}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2970" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FF613A98-EB61-4E1B-BAB3-1C94EAABA9AC}"/>
+    <workbookView xWindow="-28920" yWindow="-2970" windowWidth="29040" windowHeight="15840" xr2:uid="{FF613A98-EB61-4E1B-BAB3-1C94EAABA9AC}"/>
   </bookViews>
   <sheets>
     <sheet name="stomach" sheetId="1" r:id="rId1"/>
@@ -595,6 +595,10 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -892,11 +896,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FF9E8A-144A-4DD1-84C5-0292E9791074}">
-  <dimension ref="A1:BQ910"/>
+  <dimension ref="A1:BQ911"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A878" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M910" sqref="M910:AC910"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1322,6 +1326,9 @@
       <c r="M5" s="1">
         <v>1</v>
       </c>
+      <c r="AC5" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -1354,6 +1361,9 @@
       <c r="M6" s="1">
         <v>1</v>
       </c>
+      <c r="AC6" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -1524,6 +1534,9 @@
       <c r="M10" s="1">
         <v>1</v>
       </c>
+      <c r="AC10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -1556,6 +1569,9 @@
       <c r="M11" s="1">
         <v>1</v>
       </c>
+      <c r="AC11" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -1594,6 +1610,9 @@
       <c r="L12" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
       <c r="AC12" s="1">
         <f>SUM(AD12:BQ12)</f>
         <v>0</v>
@@ -1983,6 +2002,9 @@
       <c r="L20" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
       <c r="AC20" s="1">
         <f>SUM(AD20:BQ20)</f>
         <v>0</v>
@@ -2070,6 +2092,9 @@
       <c r="L22" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
       <c r="AC22" s="1">
         <f>SUM(AD22:BQ22)</f>
         <v>0</v>
@@ -2200,6 +2225,9 @@
       <c r="K25" s="7">
         <v>693.17250000000001</v>
       </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
       <c r="AC25" s="1">
         <f>SUM(AD25:BQ25)</f>
         <v>0</v>
@@ -2242,6 +2270,9 @@
       <c r="L26" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
       <c r="AC26" s="1">
         <f>SUM(AD26:BQ26)</f>
         <v>0</v>
@@ -2381,6 +2412,9 @@
       <c r="L29" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
       <c r="AC29" s="1">
         <f>SUM(AD29:BQ29)</f>
         <v>0</v>
@@ -2523,6 +2557,9 @@
       <c r="L32" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
       <c r="AC32" s="1">
         <f>SUM(AD32:BQ32)</f>
         <v>0</v>
@@ -3021,6 +3058,9 @@
       <c r="L42" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
       <c r="AC42" s="1">
         <f>SUM(AD42:BQ42)</f>
         <v>0</v>
@@ -3152,6 +3192,9 @@
       <c r="L45" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M45" s="1">
+        <v>0</v>
+      </c>
       <c r="AC45" s="1">
         <f>SUM(AD45:BQ45)</f>
         <v>0</v>
@@ -4071,6 +4114,9 @@
       <c r="L62" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M62" s="1">
+        <v>0</v>
+      </c>
       <c r="AC62" s="1">
         <f>SUM(AD62:BQ62)</f>
         <v>0</v>
@@ -4328,6 +4374,9 @@
       <c r="L67" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="M67" s="1">
+        <v>0</v>
+      </c>
       <c r="AC67" s="1">
         <f>SUM(AD67:BQ67)</f>
         <v>0</v>
@@ -5614,6 +5663,9 @@
       <c r="L90" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M90" s="1">
+        <v>0</v>
+      </c>
       <c r="AC90" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5972,6 +6024,9 @@
       <c r="L97" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M97" s="1">
+        <v>0</v>
+      </c>
       <c r="AC97" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7405,6 +7460,9 @@
       <c r="K123" s="7">
         <v>8.9</v>
       </c>
+      <c r="M123" s="1">
+        <v>0</v>
+      </c>
       <c r="AC123" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -9666,6 +9724,9 @@
       <c r="L163" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M163" s="1">
+        <v>0</v>
+      </c>
       <c r="AC163" s="1">
         <f>SUM(AD163:BQ163)</f>
         <v>0</v>
@@ -9753,6 +9814,9 @@
       <c r="K165" s="7">
         <v>29.5</v>
       </c>
+      <c r="M165" s="1">
+        <v>0</v>
+      </c>
       <c r="AC165" s="1">
         <f>SUM(AD165:BQ165)</f>
         <v>0</v>
@@ -9842,6 +9906,9 @@
       <c r="K167" s="7">
         <v>76</v>
       </c>
+      <c r="M167" s="1">
+        <v>0</v>
+      </c>
       <c r="AC167" s="1">
         <f>SUM(AD167:BQ167)</f>
         <v>0</v>
@@ -10060,6 +10127,9 @@
       <c r="K172" s="7">
         <v>30</v>
       </c>
+      <c r="M172" s="1">
+        <v>0</v>
+      </c>
       <c r="AC172" s="1">
         <f>SUM(AD172:BQ172)</f>
         <v>0</v>
@@ -10096,6 +10166,9 @@
       <c r="K173" s="7">
         <v>26</v>
       </c>
+      <c r="M173" s="1">
+        <v>0</v>
+      </c>
       <c r="AC173" s="1">
         <f>SUM(AD173:BQ173)</f>
         <v>0</v>
@@ -10320,6 +10393,9 @@
       <c r="L178" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M178" s="1">
+        <v>0</v>
+      </c>
       <c r="AC178" s="1">
         <f>SUM(AD178:BQ178)</f>
         <v>0</v>
@@ -10362,6 +10438,9 @@
       <c r="L179" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M179" s="1">
+        <v>0</v>
+      </c>
       <c r="AC179" s="1">
         <f>SUM(AD179:BQ179)</f>
         <v>0</v>
@@ -10448,6 +10527,9 @@
       <c r="L181" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M181" s="1">
+        <v>0</v>
+      </c>
       <c r="AC181" s="1">
         <f>SUM(AD181:BQ181)</f>
         <v>0</v>
@@ -10624,6 +10706,9 @@
       <c r="L185" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="M185" s="1">
+        <v>0</v>
+      </c>
       <c r="AC185" s="1">
         <f>SUM(AD185:BQ185)</f>
         <v>0</v>
@@ -11063,6 +11148,9 @@
       <c r="K195" s="7">
         <v>44</v>
       </c>
+      <c r="M195" s="1">
+        <v>0</v>
+      </c>
       <c r="AC195" s="1">
         <f>SUM(AD195:BQ195)</f>
         <v>0</v>
@@ -11237,6 +11325,9 @@
       <c r="K199" s="7">
         <v>23</v>
       </c>
+      <c r="M199" s="1">
+        <v>0</v>
+      </c>
       <c r="AC199" s="1">
         <f>SUM(AD199:BQ199)</f>
         <v>0</v>
@@ -11276,6 +11367,9 @@
       <c r="K200" s="7">
         <v>306</v>
       </c>
+      <c r="M200" s="1">
+        <v>0</v>
+      </c>
       <c r="AC200" s="1">
         <f>SUM(AD200:BQ200)</f>
         <v>0</v>
@@ -11315,6 +11409,9 @@
       <c r="K201" s="7">
         <v>523</v>
       </c>
+      <c r="M201" s="1">
+        <v>0</v>
+      </c>
       <c r="AC201" s="1">
         <f>SUM(AD201:BQ201)</f>
         <v>0</v>
@@ -11357,6 +11454,9 @@
       <c r="L202" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="M202" s="1">
+        <v>0</v>
+      </c>
       <c r="AC202" s="1">
         <f>SUM(AD202:BQ202)</f>
         <v>0</v>
@@ -11443,6 +11543,9 @@
       <c r="K204" s="7">
         <v>341</v>
       </c>
+      <c r="M204" s="1">
+        <v>0</v>
+      </c>
       <c r="AC204" s="1">
         <f>SUM(AD204:BQ204)</f>
         <v>0</v>
@@ -11485,6 +11588,9 @@
       <c r="L205" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="M205" s="1">
+        <v>0</v>
+      </c>
       <c r="AC205" s="1">
         <f>SUM(AD205:BQ205)</f>
         <v>0</v>
@@ -11574,6 +11680,9 @@
       <c r="L207" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="M207" s="1">
+        <v>0</v>
+      </c>
       <c r="AC207" s="1">
         <f>SUM(AD207:BQ207)</f>
         <v>0</v>
@@ -11613,6 +11722,9 @@
       <c r="K208" s="7">
         <v>128</v>
       </c>
+      <c r="M208" s="1">
+        <v>0</v>
+      </c>
       <c r="AC208" s="1">
         <f>SUM(AD208:BQ208)</f>
         <v>0</v>
@@ -11652,6 +11764,9 @@
       <c r="K209" s="7">
         <v>17</v>
       </c>
+      <c r="M209" s="1">
+        <v>0</v>
+      </c>
       <c r="AC209" s="1">
         <f>SUM(AD209:BQ209)</f>
         <v>0</v>
@@ -11738,6 +11853,9 @@
       <c r="K211" s="7">
         <v>476</v>
       </c>
+      <c r="M211" s="1">
+        <v>0</v>
+      </c>
       <c r="AC211" s="1">
         <f>SUM(AD211:BQ211)</f>
         <v>0</v>
@@ -11827,6 +11945,9 @@
       <c r="L213" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M213" s="1">
+        <v>0</v>
+      </c>
       <c r="AC213" s="1">
         <f>SUM(AD213:BQ213)</f>
         <v>0</v>
@@ -11869,6 +11990,9 @@
       <c r="L214" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="M214" s="1">
+        <v>0</v>
+      </c>
       <c r="AC214" s="1">
         <f>SUM(AD214:BQ214)</f>
         <v>0</v>
@@ -12138,6 +12262,9 @@
       <c r="K220" s="7">
         <v>364.51696625710201</v>
       </c>
+      <c r="M220" s="1">
+        <v>0</v>
+      </c>
       <c r="AC220" s="1">
         <f>SUM(AD220:BQ220)</f>
         <v>0</v>
@@ -12406,6 +12533,9 @@
       <c r="L226" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M226" s="1">
+        <v>0</v>
+      </c>
       <c r="AC226" s="1">
         <f>SUM(AD226:BQ226)</f>
         <v>0</v>
@@ -12493,6 +12623,9 @@
       <c r="K228" s="7">
         <v>151.71593458984901</v>
       </c>
+      <c r="M228" s="1">
+        <v>0</v>
+      </c>
       <c r="AC228" s="1">
         <f>SUM(AD228:BQ228)</f>
         <v>0</v>
@@ -12582,6 +12715,9 @@
       <c r="L230" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M230" s="1">
+        <v>0</v>
+      </c>
       <c r="AC230" s="1">
         <f>SUM(AD230:BQ230)</f>
         <v>0</v>
@@ -12671,6 +12807,9 @@
       <c r="L232" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="M232" s="1">
+        <v>0</v>
+      </c>
       <c r="AC232" s="1">
         <f>SUM(AD232:BQ232)</f>
         <v>0</v>
@@ -12713,6 +12852,9 @@
       <c r="L233" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M233" s="1">
+        <v>0</v>
+      </c>
       <c r="AC233" s="1">
         <f>SUM(AD233:BQ233)</f>
         <v>0</v>
@@ -12991,6 +13133,9 @@
       <c r="L239" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M239" s="1">
+        <v>0</v>
+      </c>
       <c r="AC239" s="1">
         <f>SUM(AD239:BQ239)</f>
         <v>0</v>
@@ -13262,6 +13407,9 @@
       <c r="K245" s="7">
         <v>490</v>
       </c>
+      <c r="M245" s="1">
+        <v>0</v>
+      </c>
       <c r="AC245" s="1">
         <f>SUM(AD245:BQ245)</f>
         <v>0</v>
@@ -13351,6 +13499,9 @@
       <c r="L247" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="M247" s="1">
+        <v>0</v>
+      </c>
       <c r="AC247" s="1">
         <f t="shared" ref="AC247:AC252" si="4">SUM(AD247:BQ247)</f>
         <v>0</v>
@@ -13390,6 +13541,9 @@
       <c r="K248" s="7">
         <v>185</v>
       </c>
+      <c r="M248" s="1">
+        <v>0</v>
+      </c>
       <c r="AC248" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -13432,6 +13586,9 @@
       <c r="L249" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="M249" s="1">
+        <v>0</v>
+      </c>
       <c r="AC249" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -13474,6 +13631,9 @@
       <c r="L250" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="M250" s="1">
+        <v>0</v>
+      </c>
       <c r="AC250" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -13567,6 +13727,9 @@
       <c r="L252" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M252" s="1">
+        <v>0</v>
+      </c>
       <c r="AC252" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -13741,6 +13904,9 @@
       <c r="K256" s="7">
         <v>55.7</v>
       </c>
+      <c r="M256" s="1">
+        <v>0</v>
+      </c>
       <c r="AC256" s="1">
         <f>SUM(AD256:BQ256)</f>
         <v>0</v>
@@ -13827,6 +13993,9 @@
       <c r="K258" s="7">
         <v>673</v>
       </c>
+      <c r="M258" s="1">
+        <v>0</v>
+      </c>
       <c r="AC258" s="1">
         <f>SUM(AD258:BQ258)</f>
         <v>0</v>
@@ -13869,6 +14038,9 @@
       <c r="L259" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="M259" s="1">
+        <v>0</v>
+      </c>
       <c r="AC259" s="1">
         <f>SUM(AD259:BQ259)</f>
         <v>0</v>
@@ -14429,6 +14601,9 @@
       <c r="L271" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M271" s="1">
+        <v>0</v>
+      </c>
       <c r="AC271" s="1">
         <f>SUM(AD271:BQ271)</f>
         <v>0</v>
@@ -14515,6 +14690,9 @@
       <c r="L273" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M273" s="1">
+        <v>0</v>
+      </c>
       <c r="AC273" s="1">
         <f>SUM(AD273:BQ273)</f>
         <v>0</v>
@@ -14804,6 +14982,9 @@
       <c r="L279" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M279" s="1">
+        <v>0</v>
+      </c>
       <c r="AC279" s="1">
         <f>SUM(AD279:BQ279)</f>
         <v>0</v>
@@ -15085,6 +15266,9 @@
       <c r="L285" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="M285" s="1">
+        <v>0</v>
+      </c>
       <c r="AC285" s="1">
         <f>SUM(AD285:BQ285)</f>
         <v>0</v>
@@ -15316,6 +15500,9 @@
       <c r="L290" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="M290" s="1">
+        <v>0</v>
+      </c>
       <c r="AC290" s="1">
         <f>SUM(AD290:BQ290)</f>
         <v>0</v>
@@ -15500,6 +15687,9 @@
       <c r="L294" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M294" s="1">
+        <v>0</v>
+      </c>
       <c r="AC294" s="1">
         <f>SUM(AD294:BQ294)</f>
         <v>0</v>
@@ -15542,6 +15732,9 @@
       <c r="L295" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M295" s="1">
+        <v>0</v>
+      </c>
       <c r="AC295" s="1">
         <f>SUM(AD295:BQ295)</f>
         <v>0</v>
@@ -15628,6 +15821,9 @@
       <c r="L297" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M297" s="1">
+        <v>0</v>
+      </c>
       <c r="AC297" s="1">
         <f>SUM(AD297:BQ297)</f>
         <v>0</v>
@@ -15717,6 +15913,9 @@
       <c r="L299" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="M299" s="1">
+        <v>0</v>
+      </c>
       <c r="AC299" s="1">
         <f>SUM(AD299:BQ299)</f>
         <v>0</v>
@@ -15855,6 +16054,9 @@
       <c r="L302" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="M302" s="1">
+        <v>0</v>
+      </c>
       <c r="AC302" s="1">
         <f>SUM(AD302:BQ302)</f>
         <v>0</v>
@@ -15944,6 +16146,9 @@
       <c r="L304" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M304" s="1">
+        <v>0</v>
+      </c>
       <c r="AC304" s="1">
         <f>SUM(AD304:BQ304)</f>
         <v>0</v>
@@ -15983,6 +16188,9 @@
       <c r="K305" s="7">
         <v>625</v>
       </c>
+      <c r="M305" s="1">
+        <v>0</v>
+      </c>
       <c r="AC305" s="1">
         <f>SUM(AD305:BQ305)</f>
         <v>0</v>
@@ -16022,6 +16230,9 @@
       <c r="K306" s="7">
         <v>202</v>
       </c>
+      <c r="M306" s="1">
+        <v>0</v>
+      </c>
       <c r="AC306" s="1">
         <f>SUM(AD306:BQ306)</f>
         <v>0</v>
@@ -16114,6 +16325,9 @@
       <c r="L308" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="M308" s="1">
+        <v>0</v>
+      </c>
       <c r="AC308" s="1">
         <f>SUM(AD308:BQ308)</f>
         <v>0</v>
@@ -16242,6 +16456,9 @@
       <c r="L311" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M311" s="1">
+        <v>0</v>
+      </c>
       <c r="AC311" s="1">
         <f>SUM(AD311:BQ311)</f>
         <v>0</v>
@@ -16331,6 +16548,9 @@
       <c r="L313" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M313" s="1">
+        <v>0</v>
+      </c>
       <c r="AC313" s="1">
         <f>SUM(AD313:BQ313)</f>
         <v>0</v>
@@ -16373,6 +16593,9 @@
       <c r="L314" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M314" s="1">
+        <v>0</v>
+      </c>
       <c r="AC314" s="1">
         <f>SUM(AD314:BQ314)</f>
         <v>0</v>
@@ -16415,6 +16638,9 @@
       <c r="L315" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M315" s="1">
+        <v>0</v>
+      </c>
       <c r="AC315" s="1">
         <f>SUM(AD315:BQ315)</f>
         <v>0</v>
@@ -16502,6 +16728,9 @@
       <c r="L317" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="M317" s="1">
+        <v>0</v>
+      </c>
       <c r="AC317" s="1">
         <f>SUM(AD317:BQ317)</f>
         <v>0</v>
@@ -16736,6 +16965,9 @@
       <c r="L322" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M322" s="1">
+        <v>0</v>
+      </c>
       <c r="AC322" s="1">
         <f>SUM(AD322:BQ322)</f>
         <v>0</v>
@@ -16874,6 +17106,9 @@
       <c r="L325" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M325" s="1">
+        <v>0</v>
+      </c>
       <c r="AC325" s="1">
         <f>SUM(AD325:BQ325)</f>
         <v>0</v>
@@ -17330,6 +17565,9 @@
       <c r="L334" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M334" s="1">
+        <v>0</v>
+      </c>
       <c r="AC334" s="1">
         <f>SUM(AD334:BQ334)</f>
         <v>0</v>
@@ -17372,6 +17610,9 @@
       <c r="L335" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="M335" s="1">
+        <v>0</v>
+      </c>
       <c r="AC335" s="1">
         <f>SUM(AD335:BQ335)</f>
         <v>0</v>
@@ -17607,6 +17848,9 @@
       <c r="L340" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M340" s="1">
+        <v>0</v>
+      </c>
       <c r="AC340" s="1">
         <f>SUM(AD340:BQ340)</f>
         <v>0</v>
@@ -17744,6 +17988,9 @@
       <c r="L343" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M343" s="1">
+        <v>0</v>
+      </c>
       <c r="AC343" s="1">
         <f>SUM(AD343:BQ343)</f>
         <v>0</v>
@@ -17834,6 +18081,9 @@
       <c r="L345" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M345" s="1">
+        <v>0</v>
+      </c>
       <c r="AC345" s="1">
         <f>SUM(AD345:BQ345)</f>
         <v>0</v>
@@ -17876,6 +18126,9 @@
       <c r="L346" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M346" s="1">
+        <v>0</v>
+      </c>
       <c r="AC346" s="1">
         <f>SUM(AD346:BQ346)</f>
         <v>0</v>
@@ -18548,6 +18801,9 @@
       <c r="L360" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="M360" s="1">
+        <v>0</v>
+      </c>
       <c r="AC360" s="1">
         <f>SUM(AD360:BQ360)</f>
         <v>0</v>
@@ -18731,6 +18987,9 @@
       <c r="L364" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="M364" s="1">
+        <v>0</v>
+      </c>
       <c r="AC364" s="1">
         <f>SUM(AD364:BQ364)</f>
         <v>0</v>
@@ -19163,6 +19422,9 @@
       <c r="L373" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M373" s="1">
+        <v>0</v>
+      </c>
       <c r="AC373" s="1">
         <f>SUM(AD373:BQ373)</f>
         <v>0</v>
@@ -19399,6 +19661,9 @@
       <c r="L378" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="M378" s="1">
+        <v>0</v>
+      </c>
       <c r="AC378" s="1">
         <f>SUM(AD378:BQ378)</f>
         <v>0</v>
@@ -19536,6 +19801,9 @@
       <c r="L381" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M381" s="1">
+        <v>0</v>
+      </c>
       <c r="AC381" s="1">
         <f>SUM(AD381:BQ381)</f>
         <v>0</v>
@@ -19672,6 +19940,9 @@
       <c r="L384" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="M384" s="1">
+        <v>0</v>
+      </c>
       <c r="AC384" s="1">
         <f>SUM(AD384:BQ384)</f>
         <v>0</v>
@@ -19714,6 +19985,9 @@
       <c r="L385" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="M385" s="1">
+        <v>0</v>
+      </c>
       <c r="AC385" s="1">
         <f>SUM(AD385:BQ385)</f>
         <v>0</v>
@@ -19756,6 +20030,9 @@
       <c r="L386" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="M386" s="1">
+        <v>0</v>
+      </c>
       <c r="AC386" s="1">
         <f>SUM(AD386:BQ386)</f>
         <v>0</v>
@@ -20131,6 +20408,9 @@
       <c r="L394" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M394" s="1">
+        <v>0</v>
+      </c>
       <c r="AC394" s="1">
         <f>SUM(AD394:BQ394)</f>
         <v>0</v>
@@ -20229,6 +20509,9 @@
       <c r="L396" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M396" s="1">
+        <v>0</v>
+      </c>
       <c r="AC396" s="1">
         <f t="shared" ref="AC396:AC402" si="5">SUM(AD396:BQ396)</f>
         <v>0</v>
@@ -20271,6 +20554,9 @@
       <c r="L397" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M397" s="1">
+        <v>0</v>
+      </c>
       <c r="AC397" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -20409,6 +20695,9 @@
       <c r="L400" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="M400" s="1">
+        <v>0</v>
+      </c>
       <c r="AC400" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -20451,6 +20740,9 @@
       <c r="L401" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="M401" s="1">
+        <v>0</v>
+      </c>
       <c r="AC401" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -20493,6 +20785,9 @@
       <c r="L402" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="M402" s="1">
+        <v>0</v>
+      </c>
       <c r="AC402" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -20798,6 +21093,9 @@
       <c r="L408" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M408" s="1">
+        <v>0</v>
+      </c>
       <c r="AC408" s="1">
         <f>SUM(AD408:BQ408)</f>
         <v>0</v>
@@ -20840,6 +21138,9 @@
       <c r="L409" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M409" s="1">
+        <v>0</v>
+      </c>
       <c r="AC409" s="1">
         <f>SUM(AD409:BQ409)</f>
         <v>0</v>
@@ -20935,6 +21236,9 @@
       <c r="L411" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M411" s="1">
+        <v>0</v>
+      </c>
       <c r="AC411" s="1">
         <f>SUM(AD411:BQ411)</f>
         <v>0</v>
@@ -20977,6 +21281,9 @@
       <c r="L412" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M412" s="1">
+        <v>0</v>
+      </c>
       <c r="AC412" s="1">
         <f>SUM(AD412:BQ412)</f>
         <v>0</v>
@@ -21066,6 +21373,9 @@
       <c r="L414" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M414" s="1">
+        <v>0</v>
+      </c>
       <c r="AC414" s="1">
         <f>SUM(AD414:BQ414)</f>
         <v>0</v>
@@ -21108,6 +21418,9 @@
       <c r="L415" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M415" s="1">
+        <v>0</v>
+      </c>
       <c r="AC415" s="1">
         <f>SUM(AD415:BQ415)</f>
         <v>0</v>
@@ -21200,6 +21513,9 @@
       <c r="L417" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M417" s="1">
+        <v>0</v>
+      </c>
       <c r="AC417" s="1">
         <f>SUM(AD417:BQ417)</f>
         <v>0</v>
@@ -21336,6 +21652,9 @@
       <c r="L420" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M420" s="1">
+        <v>0</v>
+      </c>
       <c r="AC420" s="1">
         <f>SUM(AD420:BQ420)</f>
         <v>0</v>
@@ -21378,6 +21697,9 @@
       <c r="L421" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M421" s="1">
+        <v>0</v>
+      </c>
       <c r="AC421" s="1">
         <f>SUM(AD421:BQ421)</f>
         <v>0</v>
@@ -21711,6 +22033,9 @@
       <c r="L428" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M428" s="1">
+        <v>0</v>
+      </c>
       <c r="AC428" s="1">
         <f>SUM(AD428:BQ428)</f>
         <v>0</v>
@@ -21800,6 +22125,9 @@
       <c r="L430" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="M430" s="1">
+        <v>0</v>
+      </c>
       <c r="AC430" s="1">
         <f>SUM(AD430:BQ430)</f>
         <v>0</v>
@@ -22578,6 +22906,9 @@
       <c r="K446" s="7">
         <v>19</v>
       </c>
+      <c r="M446" s="1">
+        <v>0</v>
+      </c>
       <c r="AC446" s="1">
         <f>SUM(AD446:BQ446)</f>
         <v>0</v>
@@ -22817,6 +23148,9 @@
       <c r="L451" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M451" s="1">
+        <v>0</v>
+      </c>
       <c r="AC451" s="1">
         <f>SUM(AD451:BQ451)</f>
         <v>0</v>
@@ -22909,6 +23243,9 @@
       <c r="L453" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M453" s="1">
+        <v>0</v>
+      </c>
       <c r="AC453" s="1">
         <f>SUM(AD453:BQ453)</f>
         <v>0</v>
@@ -23134,6 +23471,9 @@
       <c r="K458" s="7">
         <v>783.9</v>
       </c>
+      <c r="M458" s="1">
+        <v>0</v>
+      </c>
       <c r="AC458" s="1">
         <f>SUM(AD458:BQ458)</f>
         <v>0</v>
@@ -23556,6 +23896,9 @@
       <c r="L467" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M467" s="1">
+        <v>0</v>
+      </c>
       <c r="AC467" s="1">
         <f>SUM(AD467:BQ467)</f>
         <v>0</v>
@@ -23598,6 +23941,9 @@
       <c r="L468" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M468" s="1">
+        <v>0</v>
+      </c>
       <c r="AC468" s="1">
         <f>SUM(AD468:BQ468)</f>
         <v>0</v>
@@ -23640,6 +23986,9 @@
       <c r="L469" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M469" s="1">
+        <v>0</v>
+      </c>
       <c r="AC469" s="1">
         <f>SUM(AD469:BQ469)</f>
         <v>0</v>
@@ -23858,6 +24207,9 @@
       <c r="L474" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M474" s="1">
+        <v>0</v>
+      </c>
       <c r="AC474" s="1">
         <f>SUM(AD474:BQ474)</f>
         <v>0</v>
@@ -25351,6 +25703,9 @@
       <c r="K508" s="7">
         <v>174.6</v>
       </c>
+      <c r="M508" s="1">
+        <v>0</v>
+      </c>
       <c r="AC508" s="1">
         <f t="shared" ref="AC508:AC517" si="7">SUM(AD508:BQ508)</f>
         <v>0</v>
@@ -26258,6 +26613,9 @@
       <c r="L530" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="M530" s="1">
+        <v>0</v>
+      </c>
       <c r="AC530" s="1">
         <f>SUM(AD530:BQ530)</f>
         <v>0</v>
@@ -26297,6 +26655,9 @@
       <c r="K531" s="7">
         <v>23.2</v>
       </c>
+      <c r="M531" s="1">
+        <v>0</v>
+      </c>
       <c r="AC531" s="1">
         <f>SUM(AD531:BQ531)</f>
         <v>0</v>
@@ -26543,6 +26904,9 @@
       <c r="K537" s="7">
         <v>35.5</v>
       </c>
+      <c r="M537" s="1">
+        <v>0</v>
+      </c>
       <c r="AC537" s="1">
         <f>SUM(AD537:BQ537)</f>
         <v>0</v>
@@ -27017,6 +27381,9 @@
       <c r="L548" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="M548" s="1">
+        <v>0</v>
+      </c>
       <c r="AC548" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -27273,6 +27640,9 @@
       <c r="L554" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M554" s="1">
+        <v>0</v>
+      </c>
       <c r="AC554" s="1">
         <f>SUM(AD554:BQ554)</f>
         <v>0</v>
@@ -27886,6 +28256,9 @@
       <c r="L568" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="M568" s="1">
+        <v>0</v>
+      </c>
       <c r="AC568" s="1">
         <f>SUM(AD568:BQ568)</f>
         <v>0</v>
@@ -28007,6 +28380,9 @@
       <c r="L571" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="M571" s="1">
+        <v>0</v>
+      </c>
       <c r="AC571" s="1">
         <f>SUM(AD571:BQ571)</f>
         <v>0</v>
@@ -28712,6 +29088,9 @@
       <c r="L586" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="M586" s="1">
+        <v>0</v>
+      </c>
       <c r="AC586" s="1">
         <f>SUM(AD586:BQ586)</f>
         <v>0</v>
@@ -29176,6 +29555,9 @@
       <c r="L597" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="M597" s="1">
+        <v>0</v>
+      </c>
       <c r="AC597" s="1">
         <f>SUM(AD597:BQ597)</f>
         <v>0</v>
@@ -29479,6 +29861,9 @@
       <c r="L604" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="M604" s="1">
+        <v>0</v>
+      </c>
       <c r="AC604" s="1">
         <f>SUM(AD604:BQ604)</f>
         <v>0</v>
@@ -29512,6 +29897,9 @@
       <c r="L605" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="M605" s="1">
+        <v>0</v>
+      </c>
       <c r="AC605" s="1">
         <f>SUM(AD605:BQ605)</f>
         <v>0</v>
@@ -29548,6 +29936,9 @@
       <c r="K606" s="7">
         <v>569.69050000000004</v>
       </c>
+      <c r="M606" s="1">
+        <v>0</v>
+      </c>
       <c r="AC606" s="1">
         <f>SUM(AD606:BQ606)</f>
         <v>0</v>
@@ -29581,6 +29972,9 @@
       <c r="L607" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="M607" s="1">
+        <v>0</v>
+      </c>
       <c r="AC607" s="1">
         <f>SUM(AD607:BQ607)</f>
         <v>0</v>
@@ -29840,6 +30234,9 @@
       <c r="L613" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="M613" s="1">
+        <v>0</v>
+      </c>
       <c r="AC613" s="1">
         <f>SUM(AD613:BQ613)</f>
         <v>0</v>
@@ -29873,6 +30270,9 @@
       <c r="L614" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="M614" s="1">
+        <v>0</v>
+      </c>
       <c r="AC614" s="1">
         <f>SUM(AD614:BQ614)</f>
         <v>0</v>
@@ -30000,6 +30400,9 @@
       <c r="L617" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="M617" s="1">
+        <v>0</v>
+      </c>
       <c r="AC617" s="1">
         <f>SUM(AD617:BQ617)</f>
         <v>0</v>
@@ -30039,6 +30442,9 @@
       <c r="L618" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="M618" s="1">
+        <v>0</v>
+      </c>
       <c r="AC618" s="1">
         <f>SUM(AD618:BQ618)</f>
         <v>0</v>
@@ -30128,6 +30534,9 @@
       <c r="L620" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="M620" s="1">
+        <v>0</v>
+      </c>
       <c r="AC620" s="1">
         <f>SUM(AD620:BQ620)</f>
         <v>0</v>
@@ -30252,6 +30661,9 @@
       <c r="L623" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="M623" s="1">
+        <v>0</v>
+      </c>
       <c r="AC623" s="1">
         <f>SUM(AD623:BQ623)</f>
         <v>0</v>
@@ -30291,6 +30703,9 @@
       <c r="L624" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="M624" s="1">
+        <v>0</v>
+      </c>
       <c r="AC624" s="1">
         <f>SUM(AD624:BQ624)</f>
         <v>0</v>
@@ -30565,6 +30980,9 @@
       <c r="L630" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="M630" s="1">
+        <v>0</v>
+      </c>
       <c r="AC630" s="1">
         <f>SUM(AD630:BQ630)</f>
         <v>0</v>
@@ -30651,6 +31069,9 @@
       <c r="L632" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="M632" s="1">
+        <v>0</v>
+      </c>
       <c r="AC632" s="1">
         <f>SUM(AD632:BQ632)</f>
         <v>0</v>
@@ -30995,6 +31416,9 @@
       <c r="L640" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="M640" s="1">
+        <v>0</v>
+      </c>
       <c r="AC640" s="1">
         <f>SUM(AD640:BQ640)</f>
         <v>0</v>
@@ -31516,6 +31940,9 @@
       <c r="L650" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="M650" s="1">
+        <v>0</v>
+      </c>
       <c r="AC650" s="1">
         <f>SUM(AD650:BQ650)</f>
         <v>0</v>
@@ -31679,6 +32106,9 @@
       <c r="L654" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="M654" s="1">
+        <v>0</v>
+      </c>
       <c r="AC654" s="1">
         <f>SUM(AD654:BQ654)</f>
         <v>0</v>
@@ -31768,6 +32198,9 @@
       <c r="L656" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="M656" s="1">
+        <v>0</v>
+      </c>
       <c r="AC656" s="1">
         <f>SUM(AD656:BQ656)</f>
         <v>0</v>
@@ -31996,6 +32429,9 @@
       <c r="K662" s="7">
         <v>128</v>
       </c>
+      <c r="M662" s="1">
+        <v>0</v>
+      </c>
       <c r="AC662" s="1">
         <f t="shared" ref="AC662:AC671" si="9">SUM(AD662:BQ662)</f>
         <v>0</v>
@@ -32038,6 +32474,9 @@
       <c r="L663" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="M663" s="1">
+        <v>0</v>
+      </c>
       <c r="AC663" s="1">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -32080,6 +32519,9 @@
       <c r="L664" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="M664" s="1">
+        <v>0</v>
+      </c>
       <c r="AC664" s="1">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -32122,6 +32564,9 @@
       <c r="L665" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="M665" s="1">
+        <v>0</v>
+      </c>
       <c r="AC665" s="1">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -32164,6 +32609,9 @@
       <c r="L666" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="M666" s="1">
+        <v>0</v>
+      </c>
       <c r="AC666" s="1">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -32254,6 +32702,9 @@
       <c r="L668" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="M668" s="1">
+        <v>0</v>
+      </c>
       <c r="AC668" s="1">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -32296,6 +32747,9 @@
       <c r="L669" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="M669" s="1">
+        <v>0</v>
+      </c>
       <c r="AC669" s="1">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -32338,6 +32792,9 @@
       <c r="L670" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="M670" s="1">
+        <v>0</v>
+      </c>
       <c r="AC670" s="1">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -32969,6 +33426,9 @@
       <c r="K685" s="7">
         <v>198</v>
       </c>
+      <c r="M685" s="1">
+        <v>0</v>
+      </c>
       <c r="AC685" s="1">
         <f>SUM(AD685:BQ685)</f>
         <v>0</v>
@@ -33011,6 +33471,9 @@
       <c r="L686" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="M686" s="1">
+        <v>0</v>
+      </c>
       <c r="AC686" s="1">
         <f>SUM(AD686:BQ686)</f>
         <v>0</v>
@@ -33102,6 +33565,9 @@
       </c>
       <c r="L688" s="1" t="s">
         <v>58</v>
+      </c>
+      <c r="M688" s="1">
+        <v>0</v>
       </c>
       <c r="AC688" s="1">
         <f>SUM(AD688:BQ688)</f>
@@ -33246,7 +33712,9 @@
       <c r="L690" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M690" s="1"/>
+      <c r="M690" s="1">
+        <v>0</v>
+      </c>
       <c r="N690" s="1"/>
       <c r="O690" s="1"/>
       <c r="P690" s="1"/>
@@ -33344,7 +33812,9 @@
       <c r="L691" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M691" s="1"/>
+      <c r="M691" s="1">
+        <v>0</v>
+      </c>
       <c r="N691" s="1"/>
       <c r="O691" s="1"/>
       <c r="P691" s="1"/>
@@ -33543,7 +34013,9 @@
       <c r="L693" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M693" s="1"/>
+      <c r="M693" s="1">
+        <v>0</v>
+      </c>
       <c r="N693" s="1"/>
       <c r="O693" s="1"/>
       <c r="P693" s="1"/>
@@ -33843,7 +34315,9 @@
       <c r="L696" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M696" s="1"/>
+      <c r="M696" s="1">
+        <v>0</v>
+      </c>
       <c r="N696" s="1"/>
       <c r="O696" s="1"/>
       <c r="P696" s="1"/>
@@ -33941,7 +34415,9 @@
       <c r="L697" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M697" s="1"/>
+      <c r="M697" s="1">
+        <v>0</v>
+      </c>
       <c r="N697" s="1"/>
       <c r="O697" s="1"/>
       <c r="P697" s="1"/>
@@ -34039,7 +34515,9 @@
       <c r="L698" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M698" s="1"/>
+      <c r="M698" s="1">
+        <v>0</v>
+      </c>
       <c r="N698" s="1"/>
       <c r="O698" s="1"/>
       <c r="P698" s="1"/>
@@ -34137,7 +34615,9 @@
       <c r="L699" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M699" s="1"/>
+      <c r="M699" s="1">
+        <v>0</v>
+      </c>
       <c r="N699" s="1"/>
       <c r="O699" s="1"/>
       <c r="P699" s="1"/>
@@ -34235,7 +34715,9 @@
       <c r="L700" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M700" s="1"/>
+      <c r="M700" s="1">
+        <v>0</v>
+      </c>
       <c r="N700" s="1"/>
       <c r="O700" s="1"/>
       <c r="P700" s="1"/>
@@ -34327,7 +34809,9 @@
         <v>246.5</v>
       </c>
       <c r="L701" s="1"/>
-      <c r="M701" s="1"/>
+      <c r="M701" s="1">
+        <v>0</v>
+      </c>
       <c r="N701" s="1"/>
       <c r="O701" s="1"/>
       <c r="P701" s="1"/>
@@ -35013,7 +35497,9 @@
       <c r="L708" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M708" s="1"/>
+      <c r="M708" s="1">
+        <v>0</v>
+      </c>
       <c r="N708" s="1"/>
       <c r="O708" s="1"/>
       <c r="P708" s="1"/>
@@ -35111,7 +35597,9 @@
       <c r="L709" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M709" s="1"/>
+      <c r="M709" s="1">
+        <v>0</v>
+      </c>
       <c r="N709" s="1"/>
       <c r="O709" s="1"/>
       <c r="P709" s="1"/>
@@ -35209,7 +35697,9 @@
       <c r="L710" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M710" s="1"/>
+      <c r="M710" s="1">
+        <v>0</v>
+      </c>
       <c r="N710" s="1"/>
       <c r="O710" s="1"/>
       <c r="P710" s="1"/>
@@ -35406,7 +35896,9 @@
       <c r="L712" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M712" s="1"/>
+      <c r="M712" s="1">
+        <v>0</v>
+      </c>
       <c r="N712" s="1"/>
       <c r="O712" s="1"/>
       <c r="P712" s="1"/>
@@ -35500,7 +35992,9 @@
         <v>765.63909999999998</v>
       </c>
       <c r="L713" s="1"/>
-      <c r="M713" s="1"/>
+      <c r="M713" s="1">
+        <v>0</v>
+      </c>
       <c r="N713" s="1"/>
       <c r="O713" s="1"/>
       <c r="P713" s="1"/>
@@ -35596,7 +36090,9 @@
       <c r="L714" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M714" s="1"/>
+      <c r="M714" s="1">
+        <v>0</v>
+      </c>
       <c r="N714" s="1"/>
       <c r="O714" s="1"/>
       <c r="P714" s="1"/>
@@ -35887,7 +36383,9 @@
         <v>791.23450000000003</v>
       </c>
       <c r="L717" s="1"/>
-      <c r="M717" s="1"/>
+      <c r="M717" s="1">
+        <v>0</v>
+      </c>
       <c r="N717" s="1"/>
       <c r="O717" s="1"/>
       <c r="P717" s="1"/>
@@ -36871,7 +37369,9 @@
       <c r="L727" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M727" s="1"/>
+      <c r="M727" s="1">
+        <v>0</v>
+      </c>
       <c r="N727" s="1"/>
       <c r="O727" s="1"/>
       <c r="P727" s="1"/>
@@ -36969,7 +37469,9 @@
       <c r="L728" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M728" s="1"/>
+      <c r="M728" s="1">
+        <v>0</v>
+      </c>
       <c r="N728" s="1"/>
       <c r="O728" s="1"/>
       <c r="P728" s="1"/>
@@ -37466,7 +37968,9 @@
       <c r="L733" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M733" s="1"/>
+      <c r="M733" s="1">
+        <v>0</v>
+      </c>
       <c r="N733" s="1"/>
       <c r="O733" s="1"/>
       <c r="P733" s="1"/>
@@ -37666,7 +38170,9 @@
       <c r="L735" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M735" s="1"/>
+      <c r="M735" s="1">
+        <v>0</v>
+      </c>
       <c r="N735" s="1"/>
       <c r="O735" s="1"/>
       <c r="P735" s="1"/>
@@ -37764,7 +38270,9 @@
       <c r="L736" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M736" s="1"/>
+      <c r="M736" s="1">
+        <v>0</v>
+      </c>
       <c r="N736" s="1"/>
       <c r="O736" s="1"/>
       <c r="P736" s="1"/>
@@ -37862,7 +38370,9 @@
       <c r="L737" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M737" s="1"/>
+      <c r="M737" s="1">
+        <v>0</v>
+      </c>
       <c r="N737" s="1"/>
       <c r="O737" s="1"/>
       <c r="P737" s="1"/>
@@ -37960,7 +38470,9 @@
       <c r="L738" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M738" s="1"/>
+      <c r="M738" s="1">
+        <v>0</v>
+      </c>
       <c r="N738" s="1"/>
       <c r="O738" s="1"/>
       <c r="P738" s="1"/>
@@ -38159,7 +38671,9 @@
       <c r="L740" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M740" s="1"/>
+      <c r="M740" s="1">
+        <v>0</v>
+      </c>
       <c r="N740" s="1"/>
       <c r="O740" s="1"/>
       <c r="P740" s="1"/>
@@ -38358,7 +38872,9 @@
       <c r="L742" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M742" s="1"/>
+      <c r="M742" s="1">
+        <v>0</v>
+      </c>
       <c r="N742" s="1"/>
       <c r="O742" s="1"/>
       <c r="P742" s="1"/>
@@ -38456,7 +38972,9 @@
       <c r="L743" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M743" s="1"/>
+      <c r="M743" s="1">
+        <v>0</v>
+      </c>
       <c r="N743" s="1"/>
       <c r="O743" s="1"/>
       <c r="P743" s="1"/>
@@ -38554,7 +39072,9 @@
       <c r="L744" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M744" s="1"/>
+      <c r="M744" s="1">
+        <v>0</v>
+      </c>
       <c r="N744" s="1"/>
       <c r="O744" s="1"/>
       <c r="P744" s="1"/>
@@ -38652,7 +39172,9 @@
       <c r="L745" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M745" s="1"/>
+      <c r="M745" s="1">
+        <v>0</v>
+      </c>
       <c r="N745" s="1"/>
       <c r="O745" s="1"/>
       <c r="P745" s="1"/>
@@ -38750,7 +39272,9 @@
       <c r="L746" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M746" s="1"/>
+      <c r="M746" s="1">
+        <v>0</v>
+      </c>
       <c r="N746" s="1"/>
       <c r="O746" s="1"/>
       <c r="P746" s="1"/>
@@ -38846,7 +39370,9 @@
         <v>791.23450000000003</v>
       </c>
       <c r="L747" s="1"/>
-      <c r="M747" s="1"/>
+      <c r="M747" s="1">
+        <v>0</v>
+      </c>
       <c r="N747" s="1"/>
       <c r="O747" s="1"/>
       <c r="P747" s="1"/>
@@ -38944,7 +39470,9 @@
       <c r="L748" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M748" s="1"/>
+      <c r="M748" s="1">
+        <v>0</v>
+      </c>
       <c r="N748" s="1"/>
       <c r="O748" s="1"/>
       <c r="P748" s="1"/>
@@ -39040,7 +39568,9 @@
       <c r="L749" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M749" s="1"/>
+      <c r="M749" s="1">
+        <v>0</v>
+      </c>
       <c r="N749" s="1"/>
       <c r="O749" s="1"/>
       <c r="P749" s="1"/>
@@ -39641,7 +40171,9 @@
       <c r="L755" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M755" s="1"/>
+      <c r="M755" s="1">
+        <v>0</v>
+      </c>
       <c r="N755" s="1"/>
       <c r="O755" s="1"/>
       <c r="P755" s="1"/>
@@ -39737,7 +40269,9 @@
       <c r="L756" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M756" s="1"/>
+      <c r="M756" s="1">
+        <v>0</v>
+      </c>
       <c r="N756" s="1"/>
       <c r="O756" s="1"/>
       <c r="P756" s="1"/>
@@ -39940,7 +40474,9 @@
       <c r="L758" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M758" s="1"/>
+      <c r="M758" s="1">
+        <v>0</v>
+      </c>
       <c r="N758" s="1"/>
       <c r="O758" s="1"/>
       <c r="P758" s="1"/>
@@ -40135,7 +40671,9 @@
       <c r="L760" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M760" s="1"/>
+      <c r="M760" s="1">
+        <v>0</v>
+      </c>
       <c r="N760" s="1"/>
       <c r="O760" s="1"/>
       <c r="P760" s="1"/>
@@ -40231,7 +40769,9 @@
       <c r="L761" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M761" s="1"/>
+      <c r="M761" s="1">
+        <v>0</v>
+      </c>
       <c r="N761" s="1"/>
       <c r="O761" s="1"/>
       <c r="P761" s="1"/>
@@ -40327,7 +40867,9 @@
       <c r="L762" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M762" s="1"/>
+      <c r="M762" s="1">
+        <v>0</v>
+      </c>
       <c r="N762" s="1"/>
       <c r="O762" s="1"/>
       <c r="P762" s="1"/>
@@ -40423,7 +40965,9 @@
       <c r="L763" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M763" s="1"/>
+      <c r="M763" s="1">
+        <v>0</v>
+      </c>
       <c r="N763" s="1"/>
       <c r="O763" s="1"/>
       <c r="P763" s="1"/>
@@ -41209,7 +41753,9 @@
       <c r="L771" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M771" s="1"/>
+      <c r="M771" s="1">
+        <v>0</v>
+      </c>
       <c r="N771" s="1"/>
       <c r="O771" s="1"/>
       <c r="P771" s="1"/>
@@ -41609,7 +42155,9 @@
       <c r="L775" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M775" s="1"/>
+      <c r="M775" s="1">
+        <v>0</v>
+      </c>
       <c r="N775" s="1"/>
       <c r="O775" s="1"/>
       <c r="P775" s="1"/>
@@ -41707,7 +42255,9 @@
       <c r="L776" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M776" s="1"/>
+      <c r="M776" s="1">
+        <v>0</v>
+      </c>
       <c r="N776" s="1"/>
       <c r="O776" s="1"/>
       <c r="P776" s="1"/>
@@ -41805,7 +42355,9 @@
       <c r="L777" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M777" s="1"/>
+      <c r="M777" s="1">
+        <v>0</v>
+      </c>
       <c r="N777" s="1"/>
       <c r="O777" s="1"/>
       <c r="P777" s="1"/>
@@ -42212,7 +42764,9 @@
       <c r="L781" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M781" s="1"/>
+      <c r="M781" s="1">
+        <v>0</v>
+      </c>
       <c r="N781" s="1"/>
       <c r="O781" s="1"/>
       <c r="P781" s="1"/>
@@ -42310,7 +42864,9 @@
       <c r="L782" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M782" s="1"/>
+      <c r="M782" s="1">
+        <v>0</v>
+      </c>
       <c r="N782" s="1"/>
       <c r="O782" s="1"/>
       <c r="P782" s="1"/>
@@ -42408,7 +42964,9 @@
       <c r="L783" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M783" s="1"/>
+      <c r="M783" s="1">
+        <v>0</v>
+      </c>
       <c r="N783" s="1"/>
       <c r="O783" s="1"/>
       <c r="P783" s="1"/>
@@ -42605,7 +43163,9 @@
       <c r="L785" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M785" s="1"/>
+      <c r="M785" s="1">
+        <v>0</v>
+      </c>
       <c r="N785" s="1"/>
       <c r="O785" s="1"/>
       <c r="P785" s="1"/>
@@ -42893,7 +43453,9 @@
         <v>6.45</v>
       </c>
       <c r="L788" s="1"/>
-      <c r="M788" s="1"/>
+      <c r="M788" s="1">
+        <v>0</v>
+      </c>
       <c r="N788" s="1"/>
       <c r="O788" s="1"/>
       <c r="P788" s="1"/>
@@ -42985,7 +43547,9 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="L789" s="1"/>
-      <c r="M789" s="1"/>
+      <c r="M789" s="1">
+        <v>0</v>
+      </c>
       <c r="N789" s="1"/>
       <c r="O789" s="1"/>
       <c r="P789" s="1"/>
@@ -43077,7 +43641,9 @@
         <v>10</v>
       </c>
       <c r="L790" s="1"/>
-      <c r="M790" s="1"/>
+      <c r="M790" s="1">
+        <v>0</v>
+      </c>
       <c r="N790" s="1"/>
       <c r="O790" s="1"/>
       <c r="P790" s="1"/>
@@ -43457,7 +44023,9 @@
       <c r="L794" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M794" s="1"/>
+      <c r="M794" s="1">
+        <v>0</v>
+      </c>
       <c r="N794" s="1"/>
       <c r="O794" s="1"/>
       <c r="P794" s="1"/>
@@ -43656,7 +44224,9 @@
       <c r="L796" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M796" s="1"/>
+      <c r="M796" s="1">
+        <v>0</v>
+      </c>
       <c r="N796" s="1"/>
       <c r="O796" s="1"/>
       <c r="P796" s="1"/>
@@ -44247,7 +44817,9 @@
       <c r="L802" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M802" s="1"/>
+      <c r="M802" s="1">
+        <v>0</v>
+      </c>
       <c r="N802" s="1"/>
       <c r="O802" s="1"/>
       <c r="P802" s="1"/>
@@ -44446,7 +45018,9 @@
       <c r="L804" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M804" s="1"/>
+      <c r="M804" s="1">
+        <v>0</v>
+      </c>
       <c r="N804" s="1"/>
       <c r="O804" s="1"/>
       <c r="P804" s="1"/>
@@ -44542,7 +45116,9 @@
       <c r="L805" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M805" s="1"/>
+      <c r="M805" s="1">
+        <v>0</v>
+      </c>
       <c r="N805" s="1"/>
       <c r="O805" s="1"/>
       <c r="P805" s="1"/>
@@ -44638,7 +45214,9 @@
       <c r="L806" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M806" s="1"/>
+      <c r="M806" s="1">
+        <v>0</v>
+      </c>
       <c r="N806" s="1"/>
       <c r="O806" s="1"/>
       <c r="P806" s="1"/>
@@ -44730,7 +45308,9 @@
         <v>17.25</v>
       </c>
       <c r="L807" s="1"/>
-      <c r="M807" s="1"/>
+      <c r="M807" s="1">
+        <v>0</v>
+      </c>
       <c r="N807" s="1"/>
       <c r="O807" s="1"/>
       <c r="P807" s="1"/>
@@ -45220,7 +45800,9 @@
       <c r="L812" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M812" s="1"/>
+      <c r="M812" s="1">
+        <v>0</v>
+      </c>
       <c r="N812" s="1"/>
       <c r="O812" s="1"/>
       <c r="P812" s="1"/>
@@ -45413,7 +45995,9 @@
         <v>14.6</v>
       </c>
       <c r="L814" s="1"/>
-      <c r="M814" s="1"/>
+      <c r="M814" s="1">
+        <v>0</v>
+      </c>
       <c r="N814" s="1"/>
       <c r="O814" s="1"/>
       <c r="P814" s="1"/>
@@ -45505,7 +46089,9 @@
         <v>15.6</v>
       </c>
       <c r="L815" s="1"/>
-      <c r="M815" s="1"/>
+      <c r="M815" s="1">
+        <v>0</v>
+      </c>
       <c r="N815" s="1"/>
       <c r="O815" s="1"/>
       <c r="P815" s="1"/>
@@ -45697,7 +46283,9 @@
         <v>17.2</v>
       </c>
       <c r="L817" s="1"/>
-      <c r="M817" s="1"/>
+      <c r="M817" s="1">
+        <v>0</v>
+      </c>
       <c r="N817" s="1"/>
       <c r="O817" s="1"/>
       <c r="P817" s="1"/>
@@ -46289,7 +46877,9 @@
         <v>16.8</v>
       </c>
       <c r="L823" s="1"/>
-      <c r="M823" s="1"/>
+      <c r="M823" s="1">
+        <v>0</v>
+      </c>
       <c r="N823" s="1"/>
       <c r="O823" s="1"/>
       <c r="P823" s="1"/>
@@ -46480,7 +47070,9 @@
         <v>17.3</v>
       </c>
       <c r="L825" s="1"/>
-      <c r="M825" s="1"/>
+      <c r="M825" s="1">
+        <v>0</v>
+      </c>
       <c r="N825" s="1"/>
       <c r="O825" s="1"/>
       <c r="P825" s="1"/>
@@ -46669,7 +47261,9 @@
         <v>18.2</v>
       </c>
       <c r="L827" s="1"/>
-      <c r="M827" s="1"/>
+      <c r="M827" s="1">
+        <v>0</v>
+      </c>
       <c r="N827" s="1"/>
       <c r="O827" s="1"/>
       <c r="P827" s="1"/>
@@ -46955,7 +47549,9 @@
         <v>21</v>
       </c>
       <c r="L830" s="1"/>
-      <c r="M830" s="1"/>
+      <c r="M830" s="1">
+        <v>0</v>
+      </c>
       <c r="N830" s="1"/>
       <c r="O830" s="1"/>
       <c r="P830" s="1"/>
@@ -47452,7 +48048,9 @@
       <c r="L835" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M835" s="1"/>
+      <c r="M835" s="1">
+        <v>0</v>
+      </c>
       <c r="N835" s="1"/>
       <c r="O835" s="1"/>
       <c r="P835" s="1"/>
@@ -48728,7 +49326,9 @@
         <v>24</v>
       </c>
       <c r="L848" s="1"/>
-      <c r="M848" s="1"/>
+      <c r="M848" s="1">
+        <v>0</v>
+      </c>
       <c r="N848" s="1"/>
       <c r="O848" s="1"/>
       <c r="P848" s="1"/>
@@ -48820,7 +49420,9 @@
         <v>26.4</v>
       </c>
       <c r="L849" s="1"/>
-      <c r="M849" s="1"/>
+      <c r="M849" s="1">
+        <v>0</v>
+      </c>
       <c r="N849" s="1"/>
       <c r="O849" s="1"/>
       <c r="P849" s="1"/>
@@ -48912,7 +49514,9 @@
         <v>24.2</v>
       </c>
       <c r="L850" s="1"/>
-      <c r="M850" s="1"/>
+      <c r="M850" s="1">
+        <v>0</v>
+      </c>
       <c r="N850" s="1"/>
       <c r="O850" s="1"/>
       <c r="P850" s="1"/>
@@ -49008,7 +49612,9 @@
       <c r="L851" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M851" s="1"/>
+      <c r="M851" s="1">
+        <v>0</v>
+      </c>
       <c r="N851" s="1"/>
       <c r="O851" s="1"/>
       <c r="P851" s="1"/>
@@ -49104,7 +49710,9 @@
       <c r="L852" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M852" s="1"/>
+      <c r="M852" s="1">
+        <v>0</v>
+      </c>
       <c r="N852" s="1"/>
       <c r="O852" s="1"/>
       <c r="P852" s="1"/>
@@ -49200,7 +49808,9 @@
       <c r="L853" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M853" s="1"/>
+      <c r="M853" s="1">
+        <v>0</v>
+      </c>
       <c r="N853" s="1"/>
       <c r="O853" s="1"/>
       <c r="P853" s="1"/>
@@ -49296,7 +49906,9 @@
       <c r="L854" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M854" s="1"/>
+      <c r="M854" s="1">
+        <v>0</v>
+      </c>
       <c r="N854" s="1"/>
       <c r="O854" s="1"/>
       <c r="P854" s="1"/>
@@ -49388,7 +50000,9 @@
         <v>29.5</v>
       </c>
       <c r="L855" s="1"/>
-      <c r="M855" s="1"/>
+      <c r="M855" s="1">
+        <v>0</v>
+      </c>
       <c r="N855" s="1"/>
       <c r="O855" s="1"/>
       <c r="P855" s="1"/>
@@ -50558,7 +51172,9 @@
         <v>38.1</v>
       </c>
       <c r="L867" s="1"/>
-      <c r="M867" s="1"/>
+      <c r="M867" s="1">
+        <v>0</v>
+      </c>
       <c r="N867" s="1"/>
       <c r="O867" s="1"/>
       <c r="P867" s="1"/>
@@ -50656,7 +51272,9 @@
       <c r="L868" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M868" s="1"/>
+      <c r="M868" s="1">
+        <v>0</v>
+      </c>
       <c r="N868" s="1"/>
       <c r="O868" s="1"/>
       <c r="P868" s="1"/>
@@ -50942,6 +51560,9 @@
       <c r="K871" s="7">
         <v>48.85</v>
       </c>
+      <c r="M871" s="1">
+        <v>0</v>
+      </c>
       <c r="AC871" s="1">
         <f>SUM(AD871:BQ871)</f>
         <v>0</v>
@@ -50984,7 +51605,9 @@
       <c r="L872" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M872" s="1"/>
+      <c r="M872" s="1">
+        <v>0</v>
+      </c>
       <c r="N872" s="1"/>
       <c r="O872" s="1"/>
       <c r="P872" s="1"/>
@@ -51834,7 +52457,9 @@
         <v>11.1</v>
       </c>
       <c r="L883" s="1"/>
-      <c r="M883" s="1"/>
+      <c r="M883" s="1">
+        <v>0</v>
+      </c>
       <c r="N883" s="1"/>
       <c r="O883" s="1"/>
       <c r="P883" s="1"/>
@@ -52456,7 +53081,9 @@
       <c r="L891" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M891" s="1"/>
+      <c r="M891" s="1">
+        <v>0</v>
+      </c>
       <c r="N891" s="1"/>
       <c r="O891" s="1"/>
       <c r="P891" s="1"/>
@@ -53049,7 +53676,9 @@
         <v>6274.07</v>
       </c>
       <c r="L897" s="1"/>
-      <c r="M897" s="1"/>
+      <c r="M897" s="1">
+        <v>0</v>
+      </c>
       <c r="N897" s="1"/>
       <c r="O897" s="1"/>
       <c r="P897" s="1"/>
@@ -53341,7 +53970,9 @@
       <c r="L900" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M900" s="1"/>
+      <c r="M900" s="1">
+        <v>0</v>
+      </c>
       <c r="N900" s="1"/>
       <c r="O900" s="1"/>
       <c r="P900" s="1"/>
@@ -53746,7 +54377,9 @@
       <c r="L904" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M904" s="1"/>
+      <c r="M904" s="1">
+        <v>0</v>
+      </c>
       <c r="N904" s="1"/>
       <c r="O904" s="1"/>
       <c r="P904" s="1"/>
@@ -53922,7 +54555,9 @@
       <c r="J906" s="1"/>
       <c r="K906" s="1"/>
       <c r="L906" s="1"/>
-      <c r="M906" s="1"/>
+      <c r="M906" s="1">
+        <v>0</v>
+      </c>
       <c r="N906" s="1"/>
       <c r="O906" s="1"/>
       <c r="P906" s="1"/>
@@ -54014,7 +54649,9 @@
       <c r="L907" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M907" s="1"/>
+      <c r="M907" s="1">
+        <v>0</v>
+      </c>
       <c r="N907" s="1"/>
       <c r="O907" s="1"/>
       <c r="P907" s="1"/>
@@ -54131,7 +54768,9 @@
       <c r="Z908" s="1"/>
       <c r="AA908" s="1"/>
       <c r="AB908" s="1"/>
-      <c r="AC908" s="1"/>
+      <c r="AC908" s="1">
+        <v>0</v>
+      </c>
       <c r="AD908" s="1"/>
       <c r="AE908" s="1"/>
       <c r="AF908" s="1"/>
@@ -54210,7 +54849,9 @@
       <c r="L909" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M909" s="1"/>
+      <c r="M909" s="1">
+        <v>0</v>
+      </c>
       <c r="N909" s="1"/>
       <c r="O909" s="1"/>
       <c r="P909" s="1"/>
@@ -54312,6 +54953,16 @@
       <c r="M910" s="1">
         <v>0</v>
       </c>
+      <c r="AC910" s="1">
+        <f>SUM(AC2:AC909)</f>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="911" spans="1:69" x14ac:dyDescent="0.3">
+      <c r="M911" s="1">
+        <f>SUM(M2:M910)</f>
+        <v>637</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:BQ910" xr:uid="{03FF9E8A-144A-4DD1-84C5-0292E9791074}">
@@ -54329,7 +54980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B6C920-462B-4125-844F-0115D5AB452B}">
   <dimension ref="A1:BG876"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
     </sheetView>

--- a/Stomach.content.all.xlsx
+++ b/Stomach.content.all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/510852ff01b61d64/Documentos/Czech Phd/R/stomach_content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="14_{35A09E31-ECEC-40D6-8DBC-C44FDA68393F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{623F06C4-B2CD-4D73-85C7-8CC093E5DE9C}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="14_{35A09E31-ECEC-40D6-8DBC-C44FDA68393F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F640F7B-3225-496F-AB53-D1866D924013}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2970" windowWidth="29040" windowHeight="15840" xr2:uid="{FF613A98-EB61-4E1B-BAB3-1C94EAABA9AC}"/>
+    <workbookView xWindow="7488" yWindow="6804" windowWidth="11076" windowHeight="6000" activeTab="1" xr2:uid="{FF613A98-EB61-4E1B-BAB3-1C94EAABA9AC}"/>
   </bookViews>
   <sheets>
     <sheet name="stomach" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">candat!$E$1:$E$593</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">stomach!$A$1:$BQ$910</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">stomach!$A$1:$BQ$909</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -599,6 +599,10 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -896,11 +900,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FF9E8A-144A-4DD1-84C5-0292E9791074}">
-  <dimension ref="A1:BQ911"/>
+  <dimension ref="A1:BQ910"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A878" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M910" sqref="M910:AC910"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A906" sqref="A906:XFD906"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54543,18 +54547,36 @@
       <c r="BQ905" s="1"/>
     </row>
     <row r="906" spans="1:69" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A906" s="1"/>
-      <c r="B906" s="1"/>
-      <c r="C906" s="2"/>
-      <c r="D906" s="1"/>
+      <c r="A906" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B906" s="3">
+        <v>40423</v>
+      </c>
+      <c r="C906" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D906" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="E906" s="1"/>
       <c r="F906" s="1"/>
-      <c r="G906" s="1"/>
-      <c r="H906" s="1"/>
+      <c r="G906" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H906" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="I906" s="1"/>
-      <c r="J906" s="1"/>
-      <c r="K906" s="1"/>
-      <c r="L906" s="1"/>
+      <c r="J906" s="1">
+        <v>250</v>
+      </c>
+      <c r="K906" s="7">
+        <v>188</v>
+      </c>
+      <c r="L906" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="M906" s="1">
         <v>0</v>
       </c>
@@ -54574,8 +54596,7 @@
       <c r="AA906" s="1"/>
       <c r="AB906" s="1"/>
       <c r="AC906" s="1">
-        <f>SUM(AD906:BQ906)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD906" s="1"/>
       <c r="AE906" s="1"/>
@@ -54612,7 +54633,9 @@
       <c r="BJ906" s="1"/>
       <c r="BK906" s="1"/>
       <c r="BL906" s="1"/>
-      <c r="BM906" s="1"/>
+      <c r="BM906" s="1">
+        <v>1</v>
+      </c>
       <c r="BN906" s="1"/>
       <c r="BO906" s="1"/>
       <c r="BP906" s="1"/>
@@ -54623,28 +54646,34 @@
         <v>2010</v>
       </c>
       <c r="B907" s="3">
-        <v>40423</v>
+        <v>40421</v>
       </c>
       <c r="C907" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D907" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E907" s="1"/>
-      <c r="F907" s="1"/>
+      <c r="E907" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F907" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="G907" s="1" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="H907" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I907" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="I907" s="1">
+        <v>45284</v>
+      </c>
       <c r="J907" s="1">
-        <v>250</v>
+        <v>135</v>
       </c>
       <c r="K907" s="7">
-        <v>188</v>
+        <v>37</v>
       </c>
       <c r="L907" s="1" t="s">
         <v>57</v>
@@ -54668,7 +54697,7 @@
       <c r="AA907" s="1"/>
       <c r="AB907" s="1"/>
       <c r="AC907" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD907" s="1"/>
       <c r="AE907" s="1"/>
@@ -54705,9 +54734,7 @@
       <c r="BJ907" s="1"/>
       <c r="BK907" s="1"/>
       <c r="BL907" s="1"/>
-      <c r="BM907" s="1">
-        <v>1</v>
-      </c>
+      <c r="BM907" s="1"/>
       <c r="BN907" s="1"/>
       <c r="BO907" s="1"/>
       <c r="BP907" s="1"/>
@@ -54717,38 +54744,38 @@
       <c r="A908" s="1">
         <v>2010</v>
       </c>
-      <c r="B908" s="3">
-        <v>40421</v>
+      <c r="B908" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C908" s="2" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="D908" s="1" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="E908" s="1" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="F908" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G908" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H908" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I908" s="1">
-        <v>45284</v>
+        <v>738875</v>
       </c>
       <c r="J908" s="1">
-        <v>135</v>
+        <v>400</v>
       </c>
       <c r="K908" s="7">
-        <v>37</v>
+        <v>791.23450000000003</v>
       </c>
       <c r="L908" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M908" s="1">
         <v>0</v>
@@ -54769,7 +54796,7 @@
       <c r="AA908" s="1"/>
       <c r="AB908" s="1"/>
       <c r="AC908" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD908" s="1"/>
       <c r="AE908" s="1"/>
@@ -54806,45 +54833,47 @@
       <c r="BJ908" s="1"/>
       <c r="BK908" s="1"/>
       <c r="BL908" s="1"/>
-      <c r="BM908" s="1"/>
+      <c r="BM908" s="1">
+        <v>1</v>
+      </c>
       <c r="BN908" s="1"/>
       <c r="BO908" s="1"/>
       <c r="BP908" s="1"/>
       <c r="BQ908" s="1"/>
     </row>
-    <row r="909" spans="1:69" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A909" s="1">
         <v>2010</v>
       </c>
-      <c r="B909" s="3" t="s">
-        <v>48</v>
+      <c r="B909" s="3">
+        <v>40421</v>
       </c>
       <c r="C909" s="2" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="D909" s="1" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="E909" s="1" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="F909" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G909" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H909" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I909" s="1">
-        <v>738875</v>
+        <v>45406</v>
       </c>
       <c r="J909" s="1">
-        <v>400</v>
+        <v>175</v>
       </c>
       <c r="K909" s="7">
-        <v>791.23450000000003</v>
+        <v>105</v>
       </c>
       <c r="L909" s="1" t="s">
         <v>58</v>
@@ -54852,122 +54881,21 @@
       <c r="M909" s="1">
         <v>0</v>
       </c>
-      <c r="N909" s="1"/>
-      <c r="O909" s="1"/>
-      <c r="P909" s="1"/>
-      <c r="Q909" s="1"/>
-      <c r="R909" s="1"/>
-      <c r="S909" s="1"/>
-      <c r="T909" s="1"/>
-      <c r="U909" s="1"/>
-      <c r="V909" s="1"/>
-      <c r="W909" s="1"/>
-      <c r="X909" s="1"/>
-      <c r="Y909" s="1"/>
-      <c r="Z909" s="1"/>
-      <c r="AA909" s="1"/>
-      <c r="AB909" s="1"/>
       <c r="AC909" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD909" s="1"/>
-      <c r="AE909" s="1"/>
-      <c r="AF909" s="1"/>
-      <c r="AG909" s="1"/>
-      <c r="AH909" s="1"/>
-      <c r="AI909" s="1"/>
-      <c r="AJ909" s="1"/>
-      <c r="AK909" s="1"/>
-      <c r="AL909" s="1"/>
-      <c r="AM909" s="1"/>
-      <c r="AN909" s="1"/>
-      <c r="AO909" s="1"/>
-      <c r="AP909" s="1"/>
-      <c r="AQ909" s="1"/>
-      <c r="AR909" s="1"/>
-      <c r="AS909" s="1"/>
-      <c r="AT909" s="1"/>
-      <c r="AU909" s="1"/>
-      <c r="AV909" s="1"/>
-      <c r="AW909" s="1"/>
-      <c r="AX909" s="1"/>
-      <c r="AY909" s="1"/>
-      <c r="AZ909" s="1"/>
-      <c r="BA909" s="1"/>
-      <c r="BB909" s="1"/>
-      <c r="BC909" s="1"/>
-      <c r="BD909" s="1"/>
-      <c r="BE909" s="1"/>
-      <c r="BF909" s="1"/>
-      <c r="BG909" s="1"/>
-      <c r="BH909" s="1"/>
-      <c r="BI909" s="1"/>
-      <c r="BJ909" s="1"/>
-      <c r="BK909" s="1"/>
-      <c r="BL909" s="1"/>
-      <c r="BM909" s="1">
-        <v>1</v>
-      </c>
-      <c r="BN909" s="1"/>
-      <c r="BO909" s="1"/>
-      <c r="BP909" s="1"/>
-      <c r="BQ909" s="1"/>
+        <f>SUM(AC2:AC908)</f>
+        <v>418</v>
+      </c>
     </row>
     <row r="910" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="A910" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B910" s="3">
-        <v>40421</v>
-      </c>
-      <c r="C910" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D910" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E910" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F910" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G910" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H910" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I910" s="1">
-        <v>45406</v>
-      </c>
-      <c r="J910" s="1">
-        <v>175</v>
-      </c>
-      <c r="K910" s="7">
-        <v>105</v>
-      </c>
-      <c r="L910" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="M910" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC910" s="1">
-        <f>SUM(AC2:AC909)</f>
-        <v>418</v>
-      </c>
-    </row>
-    <row r="911" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="M911" s="1">
-        <f>SUM(M2:M910)</f>
+        <f>SUM(M2:M909)</f>
         <v>637</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BQ910" xr:uid="{03FF9E8A-144A-4DD1-84C5-0292E9791074}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BQ910">
-      <sortCondition descending="1" ref="AC1:AC909"/>
+  <autoFilter ref="A1:BQ909" xr:uid="{03FF9E8A-144A-4DD1-84C5-0292E9791074}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BQ909">
+      <sortCondition descending="1" ref="AC1:AC908"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -54980,9 +54908,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B6C920-462B-4125-844F-0115D5AB452B}">
   <dimension ref="A1:BG876"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E316" sqref="E316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
